--- a/cbow.xlsx
+++ b/cbow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -394,7 +394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,6 +461,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -546,9 +550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -557,8 +561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6266520" y="5906160"/>
-          <a:ext cx="1008720" cy="216360"/>
+          <a:off x="6271560" y="5906160"/>
+          <a:ext cx="1008000" cy="216000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -621,9 +625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -632,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7385760" y="5838120"/>
-          <a:ext cx="762120" cy="818280"/>
+          <a:off x="7390440" y="5838120"/>
+          <a:ext cx="762840" cy="817920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,9 +677,6 @@
             <a:t>Softmax</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -692,9 +693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -703,8 +704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8301600" y="5886720"/>
-          <a:ext cx="1010520" cy="216360"/>
+          <a:off x="8307360" y="5886720"/>
+          <a:ext cx="1011600" cy="216000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -772,9 +773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -783,8 +784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6536880" y="4957200"/>
-          <a:ext cx="1091880" cy="214200"/>
+          <a:off x="6543360" y="4957200"/>
+          <a:ext cx="1092600" cy="213840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -847,9 +848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -858,8 +859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8685000" y="4923360"/>
-          <a:ext cx="1092960" cy="214200"/>
+          <a:off x="8693640" y="4923360"/>
+          <a:ext cx="1095480" cy="213840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -922,9 +923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>350640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -933,8 +934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787880" y="4866120"/>
-          <a:ext cx="706320" cy="798480"/>
+          <a:off x="7795440" y="4866120"/>
+          <a:ext cx="707040" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,9 +988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>754200</xdr:colOff>
+      <xdr:colOff>753840</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -998,8 +999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10635120" y="7278120"/>
-          <a:ext cx="704520" cy="798480"/>
+          <a:off x="10647720" y="7278120"/>
+          <a:ext cx="704160" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,9 +1053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>742320</xdr:colOff>
+      <xdr:colOff>741960</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1063,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14693400" y="7264800"/>
-          <a:ext cx="704520" cy="798480"/>
+          <a:off x="14712480" y="7264800"/>
+          <a:ext cx="704160" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1128,8 +1129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12644640" y="8281440"/>
-          <a:ext cx="705600" cy="798480"/>
+          <a:off x="12659760" y="8281440"/>
+          <a:ext cx="706680" cy="798120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,9 +1199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>481320</xdr:colOff>
+      <xdr:colOff>480960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1209,14 +1210,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10867680" y="6700320"/>
-          <a:ext cx="199080" cy="504000"/>
+          <a:off x="10880280" y="6700320"/>
+          <a:ext cx="198720" cy="503640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="555" h="1401">
               <a:moveTo>
@@ -1273,9 +1274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>455040</xdr:colOff>
+      <xdr:colOff>454680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1284,14 +1285,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14911560" y="6683040"/>
-          <a:ext cx="199080" cy="504000"/>
+          <a:off x="14930640" y="6683040"/>
+          <a:ext cx="198720" cy="503640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="555" h="1401">
               <a:moveTo>
@@ -1359,8 +1360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11349000" y="7594560"/>
-          <a:ext cx="3336480" cy="0"/>
+          <a:off x="11361600" y="7594560"/>
+          <a:ext cx="3342960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1389,9 +1390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1400,14 +1401,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12844440" y="7614360"/>
-          <a:ext cx="332640" cy="633600"/>
+          <a:off x="12859560" y="7614360"/>
+          <a:ext cx="333720" cy="633240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="926" h="1762">
               <a:moveTo>
@@ -1465,11 +1466,11 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.56"/>
@@ -2445,11 +2446,11 @@
   </sheetPr>
   <dimension ref="C3:S56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.32"/>
   </cols>
@@ -2909,21 +2910,11 @@
         <v>1</v>
       </c>
       <c r="N26" s="8"/>
-      <c r="O26" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="R26" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="S26" s="6" t="n">
-        <v>43</v>
-      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="10"/>
@@ -3051,7 +3042,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="13" t="n">
+      <c r="L31" s="12" t="n">
         <v>0.142233</v>
       </c>
       <c r="M31" s="12" t="n">
@@ -3093,40 +3084,40 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="12" t="n">
-        <v>0.133222</v>
+        <v>0.142233</v>
       </c>
       <c r="M32" s="12" t="n">
-        <v>0.456632</v>
-      </c>
-      <c r="N32" s="13" t="n">
-        <v>0.544322</v>
+        <v>0.122345</v>
+      </c>
+      <c r="N32" s="12" t="n">
+        <v>0.102132</v>
       </c>
       <c r="O32" s="12" t="n">
         <v>0.122874</v>
       </c>
       <c r="P32" s="12" t="n">
-        <v>0.342111</v>
+        <v>0.119431</v>
       </c>
       <c r="Q32" s="14" t="n">
-        <v>0.145322</v>
+        <v>0.123111</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="17" t="n">
         <v>43</v>
       </c>
       <c r="H33" s="8"/>
